--- a/data/long_dif/P29-Edad-long_dif.xlsx
+++ b/data/long_dif/P29-Edad-long_dif.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H45"/>
+  <dimension ref="A1:N60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,12 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,18 +544,24 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
-        <is>
-          <t>Mujer</t>
-        </is>
-      </c>
+      <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="inlineStr">
         <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -559,22 +578,52 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
         </is>
       </c>
     </row>
@@ -587,6 +636,12 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -596,37 +651,67 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>34,47%</t>
+          <t>36,79%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>31,33%</t>
+          <t>28,81%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>37,34%</t>
+          <t>28,43%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>31,68%</t>
+          <t>51,61%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>35,96%</t>
+          <t>36,62%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>31,51%</t>
+          <t>30,73%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>33,33%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>42,51%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>36,7%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>29,8%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>30,98%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>47,35%</t>
         </is>
       </c>
     </row>
@@ -639,32 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>23,76; 45,96</t>
+          <t>26,4; 48,94</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>21,63; 43,48</t>
+          <t>19,84; 39,45</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>28,44; 46,52</t>
+          <t>16,83; 42,85</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>23,98; 39,69</t>
+          <t>35,29; 67,8</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>29,13; 42,69</t>
+          <t>26,84; 45,74</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>25,94; 38,25</t>
+          <t>23,26; 39,22</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>23,62; 44,5</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>29,16; 56,05</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>29,7; 44,06</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>24,1; 37,4</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>23,28; 41,0</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>36,74; 57,94</t>
         </is>
       </c>
     </row>
@@ -672,37 +787,67 @@
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>34,29%</t>
+          <t>34,57%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>41,45%</t>
+          <t>40,51%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>36,55%</t>
+          <t>50,13%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>39,61%</t>
+          <t>23,07%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>35,46%</t>
+          <t>36,68%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>40,51%</t>
+          <t>40,37%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>34,3%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>30,21%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>35,65%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>40,44%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>41,89%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>26,41%</t>
         </is>
       </c>
     </row>
@@ -715,32 +860,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>22,77; 44,15</t>
+          <t>24,93; 46,05</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>30,87; 53,28</t>
+          <t>30,49; 52,04</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>28,45; 45,53</t>
+          <t>35,88; 64,56</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>30,9; 48,49</t>
+          <t>12,5; 39,55</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>28,69; 42,38</t>
+          <t>28,18; 47,62</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>33,63; 47,53</t>
+          <t>31,63; 48,82</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>25,44; 44,52</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>18,79; 44,98</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>28,9; 43,15</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>33,51; 47,4</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>32,66; 50,09</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>17,87; 36,62</t>
         </is>
       </c>
     </row>
@@ -748,37 +923,67 @@
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Menos Diferencia Positiva</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>31,24%</t>
+          <t>28,64%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>27,21%</t>
+          <t>30,68%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>26,11%</t>
+          <t>21,45%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>28,71%</t>
+          <t>25,33%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>28,59%</t>
+          <t>26,7%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>27,98%</t>
+          <t>28,9%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>32,38%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>27,28%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>27,64%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>29,76%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>27,13%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>26,24%</t>
         </is>
       </c>
     </row>
@@ -791,74 +996,130 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>21,56; 43,12</t>
+          <t>19,45; 40,69</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>17,7; 38,18</t>
+          <t>20,81; 42,62</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>18,73; 34,5</t>
+          <t>12,67; 33,44</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>20,71; 38,83</t>
+          <t>12,01; 45,38</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>22,34; 35,56</t>
+          <t>18,32; 36,32</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>21,97; 35,73</t>
+          <t>21,39; 38,11</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>23,15; 41,73</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>17,3; 41,32</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>21,51; 35,76</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>23,56; 36,73</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>20,3; 34,88</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>18,33; 39,37</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>25-34</t>
-        </is>
-      </c>
+      <c r="A10" s="1" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>43,48%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>27,7%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>24,7%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>25,28%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>34,67%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>26,56%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -871,70 +1132,134 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>31,75; 56,85</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>19,34; 36,05</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>17,36; 33,31</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>19,45; 32,44</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>27,86; 45,25</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>20,71; 32,47</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n"/>
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>31,36%</t>
+          <t>45,99%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>41,76%</t>
+          <t>27,26%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>46,04%</t>
+          <t>45,37%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>42,75%</t>
+          <t>34,55%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>38,25%</t>
+          <t>24,9%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>42,23%</t>
+          <t>25,35%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>22,6%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>42,67%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>36,17%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>26,36%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>35,17%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>38,53%</t>
         </is>
       </c>
     </row>
@@ -947,32 +1272,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>21,86; 41,92</t>
+          <t>34,12; 61,54</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>32,43; 55,45</t>
+          <t>19,19; 35,39</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>37,82; 55,61</t>
+          <t>30,73; 67,5</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>36,18; 50,71</t>
+          <t>16,9; 63,1</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>31,25; 45,54</t>
+          <t>18,03; 32,75</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>36,27; 49,94</t>
+          <t>19,68; 32,62</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>15,37; 30,44</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>32,05; 53,1</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>29,4; 47,14</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>21,08; 32,0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>26,55; 52,82</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>28,24; 54,19</t>
         </is>
       </c>
     </row>
@@ -980,37 +1335,67 @@
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>25,16%</t>
+          <t>29,98%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>30,54%</t>
+          <t>41,71%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>29,27%</t>
+          <t>27,24%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>31,96%</t>
+          <t>41,58%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>27,09%</t>
+          <t>46,41%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>31,21%</t>
+          <t>42,7%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>45,11%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>30,95%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>37,63%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>42,18%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>35,24%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>36,38%</t>
         </is>
       </c>
     </row>
@@ -1023,74 +1408,130 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>16,31; 34,28</t>
+          <t>20,06; 40,44</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>22,37; 40,12</t>
+          <t>31,8; 55,51</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>21,25; 38,83</t>
+          <t>16,63; 39,03</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>24,95; 38,68</t>
+          <t>23,17; 63,27</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>21,54; 33,95</t>
+          <t>37,47; 55,59</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>25,22; 36,81</t>
+          <t>35,58; 50,53</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>36,08; 54,42</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>22,16; 41,02</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>29,74; 44,56</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>35,92; 50,54</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>26,06; 43,31</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>26,14; 49,31</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>35-44</t>
-        </is>
-      </c>
+      <c r="A16" s="1" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Menos Diferencia Positiva</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>36,44%</t>
+          <t>24,04%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>28,59%</t>
+          <t>31,03%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>31,77%</t>
+          <t>27,39%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>28,16%</t>
+          <t>23,86%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>33,99%</t>
+          <t>28,69%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>28,38%</t>
+          <t>31,95%</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>32,29%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>26,38%</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>26,2%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>31,46%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>29,59%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>25,09%</t>
         </is>
       </c>
     </row>
@@ -1103,32 +1544,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>28,12; 47,2</t>
+          <t>16,5; 33,92</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>21,52; 37,02</t>
+          <t>22,89; 40,97</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>25,65; 38,59</t>
+          <t>16,0; 38,97</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>22,94; 34,15</t>
+          <t>10,09; 42,21</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>29,27; 40,87</t>
+          <t>20,71; 36,74</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>23,87; 32,77</t>
+          <t>24,58; 38,91</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>25,03; 41,55</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>17,31; 36,73</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>20,13; 32,09</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>25,66; 37,55</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>20,33; 36,58</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>16,26; 36,23</t>
         </is>
       </c>
     </row>
@@ -1136,37 +1607,67 @@
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>42,33%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>45,44%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>41,55%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>44,53%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>41,92%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>44,98%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1179,70 +1680,134 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>34,53; 53,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>36,91; 53,58</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>35,08; 47,73</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>38,43; 50,09</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>36,34; 47,7</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>40,02; 50,51</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n"/>
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>21,23%</t>
+          <t>37,79%</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>25,96%</t>
+          <t>28,77%</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>26,68%</t>
+          <t>33,77%</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>27,3%</t>
+          <t>39,05%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>24,09%</t>
+          <t>31,8%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>26,64%</t>
+          <t>28,56%</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>30,83%</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>40,82%</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>34,63%</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>28,66%</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>32,23%</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>39,88%</t>
         </is>
       </c>
     </row>
@@ -1255,74 +1820,130 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>15,08; 28,52</t>
+          <t>29,04; 49,81</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>19,63; 35,69</t>
+          <t>22,23; 37,56</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>21,12; 33,17</t>
+          <t>25,09; 42,02</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>22,11; 32,62</t>
+          <t>30,03; 50,02</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>19,7; 28,61</t>
+          <t>25,94; 38,0</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>22,45; 31,67</t>
+          <t>23,56; 34,44</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>25,09; 37,77</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>31,67; 49,39</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>29,54; 41,59</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>24,45; 33,48</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>27,45; 37,08</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>33,08; 47,54</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>45-54</t>
-        </is>
-      </c>
+      <c r="A22" s="1" t="n"/>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>29,98%</t>
+          <t>40,36%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>28,34%</t>
+          <t>45,57%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>25,23%</t>
+          <t>38,67%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>29,16%</t>
+          <t>37,69%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>27,5%</t>
+          <t>41,16%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>28,76%</t>
+          <t>44,31%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>48,42%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>33,17%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>40,78%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>44,93%</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>43,77%</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>35,57%</t>
         </is>
       </c>
     </row>
@@ -1335,32 +1956,62 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>23,6; 36,9</t>
+          <t>30,59; 49,15</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>22,88; 35,15</t>
+          <t>37,7; 54,17</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>19,37; 30,81</t>
+          <t>30,5; 47,1</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>24,24; 35,41</t>
+          <t>28,72; 48,93</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>23,44; 32,0</t>
+          <t>34,66; 47,69</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>25,17; 33,32</t>
+          <t>38,29; 50,35</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>41,18; 55,22</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>24,79; 43,03</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>34,92; 45,91</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>39,9; 49,95</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>38,47; 49,22</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>29,11; 42,97</t>
         </is>
       </c>
     </row>
@@ -1368,37 +2019,67 @@
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Menos Diferencia Positiva</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>42,87%</t>
+          <t>21,84%</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>40,7%</t>
+          <t>25,66%</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>44,68%</t>
+          <t>27,56%</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>40,45%</t>
+          <t>23,26%</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>43,81%</t>
+          <t>27,04%</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>40,57%</t>
+          <t>27,13%</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>20,75%</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>26,02%</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>24,59%</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>26,41%</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>24,0%</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>24,55%</t>
         </is>
       </c>
     </row>
@@ -1411,32 +2092,62 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>34,98; 51,06</t>
+          <t>15,35; 29,11</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>33,94; 48,58</t>
+          <t>18,91; 33,91</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>38,48; 51,23</t>
+          <t>20,52; 37,64</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>34,56; 46,39</t>
+          <t>14,89; 32,36</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>38,83; 49,21</t>
+          <t>20,79; 32,95</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>36,14; 45,17</t>
+          <t>21,72; 32,16</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>15,39; 26,53</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>17,91; 34,88</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>20,47; 29,6</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>22,45; 31,19</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>19,51; 29,82</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>18,78; 31,24</t>
         </is>
       </c>
     </row>
@@ -1444,37 +2155,67 @@
       <c r="A26" s="1" t="n"/>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>27,15%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>30,96%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>30,09%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>30,4%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>28,69%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>30,67%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1487,74 +2228,134 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>21,22; 34,88</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>24,1; 37,45</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>24,68; 36,87</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>25,14; 35,92</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>24,07; 33,22</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>26,77; 34,61</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>55-64</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>38,28%</t>
+          <t>29,82%</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>26,69%</t>
+          <t>29,09%</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>32,23%</t>
+          <t>24,53%</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>34,71%</t>
+          <t>41,41%</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>35,37%</t>
+          <t>25,86%</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>30,74%</t>
+          <t>28,95%</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>36,34%</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>32,01%</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>27,76%</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>29,02%</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>30,48%</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>36,96%</t>
         </is>
       </c>
     </row>
@@ -1567,32 +2368,62 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>29,73; 46,48</t>
+          <t>23,78; 36,92</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>20,94; 32,59</t>
+          <t>23,42; 36,25</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>24,89; 40,45</t>
+          <t>18,34; 31,83</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>27,84; 41,46</t>
+          <t>31,03; 51,25</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>30,2; 41,92</t>
+          <t>20,46; 31,93</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>26,21; 35,52</t>
+          <t>23,99; 34,65</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>30,45; 43,23</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>23,24; 40,42</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>23,37; 31,77</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>25,16; 33,37</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>25,77; 35,23</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>29,98; 43,84</t>
         </is>
       </c>
     </row>
@@ -1600,37 +2431,67 @@
       <c r="A30" s="1" t="n"/>
       <c r="B30" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>31,53%</t>
+          <t>43,4%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>39,87%</t>
+          <t>39,37%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>43,1%</t>
+          <t>39,42%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>37,94%</t>
+          <t>31,75%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>37,09%</t>
+          <t>44,56%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>38,89%</t>
+          <t>40,69%</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>37,24%</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>45,28%</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>44,0%</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>40,06%</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>38,32%</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>38,16%</t>
         </is>
       </c>
     </row>
@@ -1643,32 +2504,62 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>24,62; 39,89</t>
+          <t>35,38; 52,12</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>33,15; 47,26</t>
+          <t>33,26; 46,69</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>35,53; 51,39</t>
+          <t>31,04; 47,18</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>31,66; 45,51</t>
+          <t>23,04; 41,77</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>31,78; 42,98</t>
+          <t>38,42; 51,45</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>33,96; 43,83</t>
+          <t>35,08; 46,11</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>31,25; 43,39</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>36,11; 55,16</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="inlineStr">
+        <is>
+          <t>39,45; 49,36</t>
+        </is>
+      </c>
+      <c r="L31" s="2" t="inlineStr">
+        <is>
+          <t>35,82; 44,72</t>
+        </is>
+      </c>
+      <c r="M31" s="2" t="inlineStr">
+        <is>
+          <t>33,4; 43,52</t>
+        </is>
+      </c>
+      <c r="N31" s="2" t="inlineStr">
+        <is>
+          <t>31,62; 45,07</t>
         </is>
       </c>
     </row>
@@ -1676,37 +2567,67 @@
       <c r="A32" s="1" t="n"/>
       <c r="B32" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Menos Diferencia Positiva</t>
         </is>
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>30,19%</t>
+          <t>26,78%</t>
         </is>
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t>33,44%</t>
+          <t>31,54%</t>
         </is>
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>24,68%</t>
+          <t>36,06%</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>27,35%</t>
+          <t>26,84%</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>27,54%</t>
+          <t>29,58%</t>
         </is>
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
           <t>30,36%</t>
+        </is>
+      </c>
+      <c r="I32" s="2" t="inlineStr">
+        <is>
+          <t>26,41%</t>
+        </is>
+      </c>
+      <c r="J32" s="2" t="inlineStr">
+        <is>
+          <t>22,71%</t>
+        </is>
+      </c>
+      <c r="K32" s="2" t="inlineStr">
+        <is>
+          <t>28,23%</t>
+        </is>
+      </c>
+      <c r="L32" s="2" t="inlineStr">
+        <is>
+          <t>30,93%</t>
+        </is>
+      </c>
+      <c r="M32" s="2" t="inlineStr">
+        <is>
+          <t>31,2%</t>
+        </is>
+      </c>
+      <c r="N32" s="2" t="inlineStr">
+        <is>
+          <t>24,88%</t>
         </is>
       </c>
     </row>
@@ -1719,74 +2640,130 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>23,61; 38,62</t>
+          <t>20,73; 34,29</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>26,79; 40,06</t>
+          <t>25,29; 37,93</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>18,72; 31,87</t>
+          <t>28,16; 47,48</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>21,21; 33,77</t>
+          <t>17,97; 39,26</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>23,01; 32,88</t>
+          <t>24,09; 36,16</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>26,07; 35,51</t>
+          <t>25,6; 36,18</t>
+        </is>
+      </c>
+      <c r="I33" s="2" t="inlineStr">
+        <is>
+          <t>20,58; 33,31</t>
+        </is>
+      </c>
+      <c r="J33" s="2" t="inlineStr">
+        <is>
+          <t>15,9; 31,3</t>
+        </is>
+      </c>
+      <c r="K33" s="2" t="inlineStr">
+        <is>
+          <t>23,75; 32,6</t>
+        </is>
+      </c>
+      <c r="L33" s="2" t="inlineStr">
+        <is>
+          <t>26,79; 35,16</t>
+        </is>
+      </c>
+      <c r="M33" s="2" t="inlineStr">
+        <is>
+          <t>26,38; 37,95</t>
+        </is>
+      </c>
+      <c r="N33" s="2" t="inlineStr">
+        <is>
+          <t>19,28; 32,59</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="1" t="inlineStr">
-        <is>
-          <t>65 Y MAS</t>
-        </is>
-      </c>
+      <c r="A34" s="1" t="n"/>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>23,91%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D34" s="2" t="inlineStr">
         <is>
-          <t>21,78%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>28,02%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>32,64%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>26,23%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>27,96%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="K34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1799,70 +2776,134 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>15,95; 32,2</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>15,48; 29,6</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>19,79; 35,63</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>25,34; 45,59</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>20,98; 31,89</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>22,61; 35,68</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="1" t="n"/>
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
       <c r="B36" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>46,11%</t>
+          <t>39,27%</t>
         </is>
       </c>
       <c r="D36" s="2" t="inlineStr">
         <is>
-          <t>43,76%</t>
+          <t>26,48%</t>
         </is>
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>38,1%</t>
+          <t>34,21%</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>33,96%</t>
+          <t>32,14%</t>
         </is>
       </c>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>41,6%</t>
+          <t>32,81%</t>
         </is>
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>38,19%</t>
+          <t>34,55%</t>
+        </is>
+      </c>
+      <c r="I36" s="2" t="inlineStr">
+        <is>
+          <t>25,52%</t>
+        </is>
+      </c>
+      <c r="J36" s="2" t="inlineStr">
+        <is>
+          <t>43,55%</t>
+        </is>
+      </c>
+      <c r="K36" s="2" t="inlineStr">
+        <is>
+          <t>36,16%</t>
+        </is>
+      </c>
+      <c r="L36" s="2" t="inlineStr">
+        <is>
+          <t>30,57%</t>
+        </is>
+      </c>
+      <c r="M36" s="2" t="inlineStr">
+        <is>
+          <t>29,81%</t>
+        </is>
+      </c>
+      <c r="N36" s="2" t="inlineStr">
+        <is>
+          <t>38,06%</t>
         </is>
       </c>
     </row>
@@ -1875,32 +2916,62 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>35,21; 61,06</t>
+          <t>32,0; 48,74</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>34,89; 53,49</t>
+          <t>20,83; 33,28</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>28,68; 47,06</t>
+          <t>25,98; 44,03</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>26,55; 41,36</t>
+          <t>22,6; 43,43</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>34,71; 50,53</t>
+          <t>25,62; 40,89</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>32,02; 44,21</t>
+          <t>28,07; 41,9</t>
+        </is>
+      </c>
+      <c r="I37" s="2" t="inlineStr">
+        <is>
+          <t>18,96; 34,0</t>
+        </is>
+      </c>
+      <c r="J37" s="2" t="inlineStr">
+        <is>
+          <t>33,65; 52,93</t>
+        </is>
+      </c>
+      <c r="K37" s="2" t="inlineStr">
+        <is>
+          <t>30,35; 41,83</t>
+        </is>
+      </c>
+      <c r="L37" s="2" t="inlineStr">
+        <is>
+          <t>26,42; 35,94</t>
+        </is>
+      </c>
+      <c r="M37" s="2" t="inlineStr">
+        <is>
+          <t>24,64; 36,23</t>
+        </is>
+      </c>
+      <c r="N37" s="2" t="inlineStr">
+        <is>
+          <t>31,51; 45,68</t>
         </is>
       </c>
     </row>
@@ -1908,37 +2979,67 @@
       <c r="A38" s="1" t="n"/>
       <c r="B38" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>29,98%</t>
+          <t>30,95%</t>
         </is>
       </c>
       <c r="D38" s="2" t="inlineStr">
         <is>
-          <t>34,46%</t>
+          <t>40,12%</t>
         </is>
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>33,88%</t>
+          <t>38,19%</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
         <is>
-          <t>33,39%</t>
+          <t>43,88%</t>
         </is>
       </c>
       <c r="G38" s="2" t="inlineStr">
         <is>
-          <t>32,18%</t>
+          <t>42,16%</t>
         </is>
       </c>
       <c r="H38" s="2" t="inlineStr">
         <is>
-          <t>33,85%</t>
+          <t>37,84%</t>
+        </is>
+      </c>
+      <c r="I38" s="2" t="inlineStr">
+        <is>
+          <t>45,7%</t>
+        </is>
+      </c>
+      <c r="J38" s="2" t="inlineStr">
+        <is>
+          <t>31,17%</t>
+        </is>
+      </c>
+      <c r="K38" s="2" t="inlineStr">
+        <is>
+          <t>36,36%</t>
+        </is>
+      </c>
+      <c r="L38" s="2" t="inlineStr">
+        <is>
+          <t>38,97%</t>
+        </is>
+      </c>
+      <c r="M38" s="2" t="inlineStr">
+        <is>
+          <t>41,99%</t>
+        </is>
+      </c>
+      <c r="N38" s="2" t="inlineStr">
+        <is>
+          <t>37,29%</t>
         </is>
       </c>
     </row>
@@ -1951,74 +3052,130 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>20,39; 38,57</t>
+          <t>23,97; 39,1</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>26,41; 44,25</t>
+          <t>32,93; 47,73</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>25,35; 47,44</t>
+          <t>29,29; 48,7</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>24,73; 40,98</t>
+          <t>31,92; 54,72</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>25,74; 40,14</t>
+          <t>34,4; 50,64</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>27,51; 39,76</t>
+          <t>31,34; 44,91</t>
+        </is>
+      </c>
+      <c r="I39" s="2" t="inlineStr">
+        <is>
+          <t>36,23; 55,71</t>
+        </is>
+      </c>
+      <c r="J39" s="2" t="inlineStr">
+        <is>
+          <t>22,82; 40,46</t>
+        </is>
+      </c>
+      <c r="K39" s="2" t="inlineStr">
+        <is>
+          <t>30,99; 42,14</t>
+        </is>
+      </c>
+      <c r="L39" s="2" t="inlineStr">
+        <is>
+          <t>34,28; 43,97</t>
+        </is>
+      </c>
+      <c r="M39" s="2" t="inlineStr">
+        <is>
+          <t>35,63; 48,5</t>
+        </is>
+      </c>
+      <c r="N39" s="2" t="inlineStr">
+        <is>
+          <t>29,99; 44,11</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="A40" s="1" t="n"/>
       <c r="B40" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Menos Diferencia Positiva</t>
         </is>
       </c>
       <c r="C40" s="2" t="inlineStr">
         <is>
-          <t>34,43%</t>
+          <t>29,77%</t>
         </is>
       </c>
       <c r="D40" s="2" t="inlineStr">
         <is>
-          <t>27,45%</t>
+          <t>33,4%</t>
         </is>
       </c>
       <c r="E40" s="2" t="inlineStr">
         <is>
-          <t>29,6%</t>
+          <t>27,6%</t>
         </is>
       </c>
       <c r="F40" s="2" t="inlineStr">
         <is>
-          <t>30,2%</t>
+          <t>23,98%</t>
         </is>
       </c>
       <c r="G40" s="2" t="inlineStr">
         <is>
-          <t>31,94%</t>
+          <t>25,03%</t>
         </is>
       </c>
       <c r="H40" s="2" t="inlineStr">
         <is>
-          <t>28,87%</t>
+          <t>27,61%</t>
+        </is>
+      </c>
+      <c r="I40" s="2" t="inlineStr">
+        <is>
+          <t>28,78%</t>
+        </is>
+      </c>
+      <c r="J40" s="2" t="inlineStr">
+        <is>
+          <t>25,28%</t>
+        </is>
+      </c>
+      <c r="K40" s="2" t="inlineStr">
+        <is>
+          <t>27,48%</t>
+        </is>
+      </c>
+      <c r="L40" s="2" t="inlineStr">
+        <is>
+          <t>30,46%</t>
+        </is>
+      </c>
+      <c r="M40" s="2" t="inlineStr">
+        <is>
+          <t>28,2%</t>
+        </is>
+      </c>
+      <c r="N40" s="2" t="inlineStr">
+        <is>
+          <t>24,65%</t>
         </is>
       </c>
     </row>
@@ -2031,32 +3188,62 @@
       </c>
       <c r="C41" s="2" t="inlineStr">
         <is>
-          <t>30,67; 38,43</t>
+          <t>23,03; 38,24</t>
         </is>
       </c>
       <c r="D41" s="2" t="inlineStr">
         <is>
-          <t>24,54; 30,99</t>
+          <t>26,66; 40,26</t>
         </is>
       </c>
       <c r="E41" s="2" t="inlineStr">
         <is>
-          <t>26,62; 32,91</t>
+          <t>20,08; 37,55</t>
         </is>
       </c>
       <c r="F41" s="2" t="inlineStr">
         <is>
-          <t>27,3; 33,2</t>
+          <t>15,61; 33,76</t>
         </is>
       </c>
       <c r="G41" s="2" t="inlineStr">
         <is>
-          <t>29,3; 34,52</t>
+          <t>18,07; 32,39</t>
         </is>
       </c>
       <c r="H41" s="2" t="inlineStr">
         <is>
-          <t>26,82; 30,96</t>
+          <t>21,3; 33,94</t>
+        </is>
+      </c>
+      <c r="I41" s="2" t="inlineStr">
+        <is>
+          <t>21,12; 37,12</t>
+        </is>
+      </c>
+      <c r="J41" s="2" t="inlineStr">
+        <is>
+          <t>17,62; 33,4</t>
+        </is>
+      </c>
+      <c r="K41" s="2" t="inlineStr">
+        <is>
+          <t>22,64; 32,81</t>
+        </is>
+      </c>
+      <c r="L41" s="2" t="inlineStr">
+        <is>
+          <t>25,92; 35,5</t>
+        </is>
+      </c>
+      <c r="M41" s="2" t="inlineStr">
+        <is>
+          <t>22,76; 34,53</t>
+        </is>
+      </c>
+      <c r="N41" s="2" t="inlineStr">
+        <is>
+          <t>18,92; 31,4</t>
         </is>
       </c>
     </row>
@@ -2064,37 +3251,67 @@
       <c r="A42" s="1" t="n"/>
       <c r="B42" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C42" s="2" t="inlineStr">
         <is>
-          <t>38,46%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D42" s="2" t="inlineStr">
         <is>
-          <t>42,29%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E42" s="2" t="inlineStr">
         <is>
-          <t>41,66%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F42" s="2" t="inlineStr">
         <is>
-          <t>39,87%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G42" s="2" t="inlineStr">
         <is>
-          <t>40,11%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H42" s="2" t="inlineStr">
         <is>
-          <t>41,04%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="K42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -2107,70 +3324,134 @@
       </c>
       <c r="C43" s="2" t="inlineStr">
         <is>
-          <t>34,63; 43,06</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D43" s="2" t="inlineStr">
         <is>
-          <t>38,52; 46,03</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E43" s="2" t="inlineStr">
         <is>
-          <t>38,07; 44,82</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F43" s="2" t="inlineStr">
         <is>
-          <t>37,31; 42,69</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G43" s="2" t="inlineStr">
         <is>
-          <t>37,51; 42,77</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H43" s="2" t="inlineStr">
         <is>
-          <t>38,65; 43,57</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="1" t="n"/>
+      <c r="A44" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
       <c r="B44" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C44" s="2" t="inlineStr">
         <is>
-          <t>27,11%</t>
+          <t>25,48%</t>
         </is>
       </c>
       <c r="D44" s="2" t="inlineStr">
         <is>
-          <t>30,25%</t>
+          <t>22,9%</t>
         </is>
       </c>
       <c r="E44" s="2" t="inlineStr">
         <is>
-          <t>28,74%</t>
+          <t>28,45%</t>
         </is>
       </c>
       <c r="F44" s="2" t="inlineStr">
         <is>
-          <t>29,93%</t>
+          <t>33,94%</t>
         </is>
       </c>
       <c r="G44" s="2" t="inlineStr">
         <is>
-          <t>27,95%</t>
+          <t>28,76%</t>
         </is>
       </c>
       <c r="H44" s="2" t="inlineStr">
         <is>
-          <t>30,09%</t>
+          <t>30,48%</t>
+        </is>
+      </c>
+      <c r="I44" s="2" t="inlineStr">
+        <is>
+          <t>34,35%</t>
+        </is>
+      </c>
+      <c r="J44" s="2" t="inlineStr">
+        <is>
+          <t>42,73%</t>
+        </is>
+      </c>
+      <c r="K44" s="2" t="inlineStr">
+        <is>
+          <t>27,31%</t>
+        </is>
+      </c>
+      <c r="L44" s="2" t="inlineStr">
+        <is>
+          <t>27,2%</t>
+        </is>
+      </c>
+      <c r="M44" s="2" t="inlineStr">
+        <is>
+          <t>31,79%</t>
+        </is>
+      </c>
+      <c r="N44" s="2" t="inlineStr">
+        <is>
+          <t>39,04%</t>
         </is>
       </c>
     </row>
@@ -2183,48 +3464,1041 @@
       </c>
       <c r="C45" s="2" t="inlineStr">
         <is>
-          <t>23,85; 30,76</t>
+          <t>17,35; 33,68</t>
         </is>
       </c>
       <c r="D45" s="2" t="inlineStr">
         <is>
-          <t>26,98; 33,54</t>
+          <t>16,34; 30,41</t>
         </is>
       </c>
       <c r="E45" s="2" t="inlineStr">
         <is>
-          <t>25,77; 32,18</t>
+          <t>19,58; 39,14</t>
         </is>
       </c>
       <c r="F45" s="2" t="inlineStr">
         <is>
-          <t>27,46; 32,69</t>
+          <t>22,89; 46,75</t>
         </is>
       </c>
       <c r="G45" s="2" t="inlineStr">
         <is>
-          <t>25,77; 30,5</t>
+          <t>21,82; 37,19</t>
         </is>
       </c>
       <c r="H45" s="2" t="inlineStr">
         <is>
-          <t>27,73; 32,21</t>
+          <t>23,44; 38,78</t>
+        </is>
+      </c>
+      <c r="I45" s="2" t="inlineStr">
+        <is>
+          <t>25,09; 44,2</t>
+        </is>
+      </c>
+      <c r="J45" s="2" t="inlineStr">
+        <is>
+          <t>28,67; 56,44</t>
+        </is>
+      </c>
+      <c r="K45" s="2" t="inlineStr">
+        <is>
+          <t>21,65; 32,6</t>
+        </is>
+      </c>
+      <c r="L45" s="2" t="inlineStr">
+        <is>
+          <t>22,01; 33,38</t>
+        </is>
+      </c>
+      <c r="M45" s="2" t="inlineStr">
+        <is>
+          <t>24,25; 38,86</t>
+        </is>
+      </c>
+      <c r="N45" s="2" t="inlineStr">
+        <is>
+          <t>30,41; 49,04</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n"/>
+      <c r="B46" s="3" t="inlineStr">
+        <is>
+          <t>Igual diferencia Cero</t>
+        </is>
+      </c>
+      <c r="C46" s="2" t="inlineStr">
+        <is>
+          <t>42,5%</t>
+        </is>
+      </c>
+      <c r="D46" s="2" t="inlineStr">
+        <is>
+          <t>42,48%</t>
+        </is>
+      </c>
+      <c r="E46" s="2" t="inlineStr">
+        <is>
+          <t>46,34%</t>
+        </is>
+      </c>
+      <c r="F46" s="2" t="inlineStr">
+        <is>
+          <t>43,87%</t>
+        </is>
+      </c>
+      <c r="G46" s="2" t="inlineStr">
+        <is>
+          <t>38,99%</t>
+        </is>
+      </c>
+      <c r="H46" s="2" t="inlineStr">
+        <is>
+          <t>34,89%</t>
+        </is>
+      </c>
+      <c r="I46" s="2" t="inlineStr">
+        <is>
+          <t>34,24%</t>
+        </is>
+      </c>
+      <c r="J46" s="2" t="inlineStr">
+        <is>
+          <t>24,41%</t>
+        </is>
+      </c>
+      <c r="K46" s="2" t="inlineStr">
+        <is>
+          <t>40,54%</t>
+        </is>
+      </c>
+      <c r="L46" s="2" t="inlineStr">
+        <is>
+          <t>38,18%</t>
+        </is>
+      </c>
+      <c r="M46" s="2" t="inlineStr">
+        <is>
+          <t>39,5%</t>
+        </is>
+      </c>
+      <c r="N46" s="2" t="inlineStr">
+        <is>
+          <t>32,58%</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n"/>
+      <c r="B47" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C47" s="2" t="inlineStr">
+        <is>
+          <t>32,89; 56,66</t>
+        </is>
+      </c>
+      <c r="D47" s="2" t="inlineStr">
+        <is>
+          <t>33,67; 51,47</t>
+        </is>
+      </c>
+      <c r="E47" s="2" t="inlineStr">
+        <is>
+          <t>34,14; 58,12</t>
+        </is>
+      </c>
+      <c r="F47" s="2" t="inlineStr">
+        <is>
+          <t>31,02; 56,15</t>
+        </is>
+      </c>
+      <c r="G47" s="2" t="inlineStr">
+        <is>
+          <t>30,53; 47,69</t>
+        </is>
+      </c>
+      <c r="H47" s="2" t="inlineStr">
+        <is>
+          <t>28,43; 42,57</t>
+        </is>
+      </c>
+      <c r="I47" s="2" t="inlineStr">
+        <is>
+          <t>25,39; 44,23</t>
+        </is>
+      </c>
+      <c r="J47" s="2" t="inlineStr">
+        <is>
+          <t>14,68; 37,91</t>
+        </is>
+      </c>
+      <c r="K47" s="2" t="inlineStr">
+        <is>
+          <t>34,21; 48,78</t>
+        </is>
+      </c>
+      <c r="L47" s="2" t="inlineStr">
+        <is>
+          <t>32,15; 44,58</t>
+        </is>
+      </c>
+      <c r="M47" s="2" t="inlineStr">
+        <is>
+          <t>31,65; 46,89</t>
+        </is>
+      </c>
+      <c r="N47" s="2" t="inlineStr">
+        <is>
+          <t>24,17; 42,51</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n"/>
+      <c r="B48" s="3" t="inlineStr">
+        <is>
+          <t>Menos Diferencia Positiva</t>
+        </is>
+      </c>
+      <c r="C48" s="2" t="inlineStr">
+        <is>
+          <t>32,02%</t>
+        </is>
+      </c>
+      <c r="D48" s="2" t="inlineStr">
+        <is>
+          <t>34,62%</t>
+        </is>
+      </c>
+      <c r="E48" s="2" t="inlineStr">
+        <is>
+          <t>25,21%</t>
+        </is>
+      </c>
+      <c r="F48" s="2" t="inlineStr">
+        <is>
+          <t>22,19%</t>
+        </is>
+      </c>
+      <c r="G48" s="2" t="inlineStr">
+        <is>
+          <t>32,25%</t>
+        </is>
+      </c>
+      <c r="H48" s="2" t="inlineStr">
+        <is>
+          <t>34,63%</t>
+        </is>
+      </c>
+      <c r="I48" s="2" t="inlineStr">
+        <is>
+          <t>31,4%</t>
+        </is>
+      </c>
+      <c r="J48" s="2" t="inlineStr">
+        <is>
+          <t>32,86%</t>
+        </is>
+      </c>
+      <c r="K48" s="2" t="inlineStr">
+        <is>
+          <t>32,15%</t>
+        </is>
+      </c>
+      <c r="L48" s="2" t="inlineStr">
+        <is>
+          <t>34,63%</t>
+        </is>
+      </c>
+      <c r="M48" s="2" t="inlineStr">
+        <is>
+          <t>28,71%</t>
+        </is>
+      </c>
+      <c r="N48" s="2" t="inlineStr">
+        <is>
+          <t>28,38%</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n"/>
+      <c r="B49" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C49" s="2" t="inlineStr">
+        <is>
+          <t>22,37; 40,69</t>
+        </is>
+      </c>
+      <c r="D49" s="2" t="inlineStr">
+        <is>
+          <t>26,4; 43,41</t>
+        </is>
+      </c>
+      <c r="E49" s="2" t="inlineStr">
+        <is>
+          <t>16,74; 35,99</t>
+        </is>
+      </c>
+      <c r="F49" s="2" t="inlineStr">
+        <is>
+          <t>13,7; 34,47</t>
+        </is>
+      </c>
+      <c r="G49" s="2" t="inlineStr">
+        <is>
+          <t>23,38; 42,03</t>
+        </is>
+      </c>
+      <c r="H49" s="2" t="inlineStr">
+        <is>
+          <t>27,15; 42,21</t>
+        </is>
+      </c>
+      <c r="I49" s="2" t="inlineStr">
+        <is>
+          <t>21,87; 42,28</t>
+        </is>
+      </c>
+      <c r="J49" s="2" t="inlineStr">
+        <is>
+          <t>21,72; 49,32</t>
+        </is>
+      </c>
+      <c r="K49" s="2" t="inlineStr">
+        <is>
+          <t>25,44; 38,35</t>
+        </is>
+      </c>
+      <c r="L49" s="2" t="inlineStr">
+        <is>
+          <t>28,96; 40,92</t>
+        </is>
+      </c>
+      <c r="M49" s="2" t="inlineStr">
+        <is>
+          <t>22,19; 37,75</t>
+        </is>
+      </c>
+      <c r="N49" s="2" t="inlineStr">
+        <is>
+          <t>19,23; 38,86</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n"/>
+      <c r="B50" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="D50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="E50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="F50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="G50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="K50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n"/>
+      <c r="B51" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B52" s="3" t="inlineStr">
+        <is>
+          <t>Más diferencia negativa</t>
+        </is>
+      </c>
+      <c r="C52" s="2" t="inlineStr">
+        <is>
+          <t>35,74%</t>
+        </is>
+      </c>
+      <c r="D52" s="2" t="inlineStr">
+        <is>
+          <t>27,34%</t>
+        </is>
+      </c>
+      <c r="E52" s="2" t="inlineStr">
+        <is>
+          <t>32,65%</t>
+        </is>
+      </c>
+      <c r="F52" s="2" t="inlineStr">
+        <is>
+          <t>38,75%</t>
+        </is>
+      </c>
+      <c r="G52" s="2" t="inlineStr">
+        <is>
+          <t>29,93%</t>
+        </is>
+      </c>
+      <c r="H52" s="2" t="inlineStr">
+        <is>
+          <t>29,69%</t>
+        </is>
+      </c>
+      <c r="I52" s="2" t="inlineStr">
+        <is>
+          <t>30,96%</t>
+        </is>
+      </c>
+      <c r="J52" s="2" t="inlineStr">
+        <is>
+          <t>40,65%</t>
+        </is>
+      </c>
+      <c r="K52" s="2" t="inlineStr">
+        <is>
+          <t>32,75%</t>
+        </is>
+      </c>
+      <c r="L52" s="2" t="inlineStr">
+        <is>
+          <t>28,55%</t>
+        </is>
+      </c>
+      <c r="M52" s="2" t="inlineStr">
+        <is>
+          <t>31,78%</t>
+        </is>
+      </c>
+      <c r="N52" s="2" t="inlineStr">
+        <is>
+          <t>39,7%</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n"/>
+      <c r="B53" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C53" s="2" t="inlineStr">
+        <is>
+          <t>31,79; 40,16</t>
+        </is>
+      </c>
+      <c r="D53" s="2" t="inlineStr">
+        <is>
+          <t>24,32; 30,69</t>
+        </is>
+      </c>
+      <c r="E53" s="2" t="inlineStr">
+        <is>
+          <t>28,19; 39,24</t>
+        </is>
+      </c>
+      <c r="F53" s="2" t="inlineStr">
+        <is>
+          <t>33,66; 45,12</t>
+        </is>
+      </c>
+      <c r="G53" s="2" t="inlineStr">
+        <is>
+          <t>26,81; 32,74</t>
+        </is>
+      </c>
+      <c r="H53" s="2" t="inlineStr">
+        <is>
+          <t>27,19; 32,45</t>
+        </is>
+      </c>
+      <c r="I53" s="2" t="inlineStr">
+        <is>
+          <t>27,72; 34,17</t>
+        </is>
+      </c>
+      <c r="J53" s="2" t="inlineStr">
+        <is>
+          <t>36,32; 45,21</t>
+        </is>
+      </c>
+      <c r="K53" s="2" t="inlineStr">
+        <is>
+          <t>30,08; 35,55</t>
+        </is>
+      </c>
+      <c r="L53" s="2" t="inlineStr">
+        <is>
+          <t>26,63; 30,78</t>
+        </is>
+      </c>
+      <c r="M53" s="2" t="inlineStr">
+        <is>
+          <t>28,99; 35,58</t>
+        </is>
+      </c>
+      <c r="N53" s="2" t="inlineStr">
+        <is>
+          <t>35,88; 43,44</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n"/>
+      <c r="B54" s="3" t="inlineStr">
+        <is>
+          <t>Igual diferencia Cero</t>
+        </is>
+      </c>
+      <c r="C54" s="2" t="inlineStr">
+        <is>
+          <t>37,35%</t>
+        </is>
+      </c>
+      <c r="D54" s="2" t="inlineStr">
+        <is>
+          <t>41,77%</t>
+        </is>
+      </c>
+      <c r="E54" s="2" t="inlineStr">
+        <is>
+          <t>39,42%</t>
+        </is>
+      </c>
+      <c r="F54" s="2" t="inlineStr">
+        <is>
+          <t>36,97%</t>
+        </is>
+      </c>
+      <c r="G54" s="2" t="inlineStr">
+        <is>
+          <t>41,63%</t>
+        </is>
+      </c>
+      <c r="H54" s="2" t="inlineStr">
+        <is>
+          <t>40,12%</t>
+        </is>
+      </c>
+      <c r="I54" s="2" t="inlineStr">
+        <is>
+          <t>40,83%</t>
+        </is>
+      </c>
+      <c r="J54" s="2" t="inlineStr">
+        <is>
+          <t>32,39%</t>
+        </is>
+      </c>
+      <c r="K54" s="2" t="inlineStr">
+        <is>
+          <t>39,55%</t>
+        </is>
+      </c>
+      <c r="L54" s="2" t="inlineStr">
+        <is>
+          <t>40,92%</t>
+        </is>
+      </c>
+      <c r="M54" s="2" t="inlineStr">
+        <is>
+          <t>40,14%</t>
+        </is>
+      </c>
+      <c r="N54" s="2" t="inlineStr">
+        <is>
+          <t>34,68%</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n"/>
+      <c r="B55" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C55" s="2" t="inlineStr">
+        <is>
+          <t>33,39; 41,29</t>
+        </is>
+      </c>
+      <c r="D55" s="2" t="inlineStr">
+        <is>
+          <t>38,07; 45,55</t>
+        </is>
+      </c>
+      <c r="E55" s="2" t="inlineStr">
+        <is>
+          <t>34,21; 43,78</t>
+        </is>
+      </c>
+      <c r="F55" s="2" t="inlineStr">
+        <is>
+          <t>31,4; 42,74</t>
+        </is>
+      </c>
+      <c r="G55" s="2" t="inlineStr">
+        <is>
+          <t>38,55; 45,01</t>
+        </is>
+      </c>
+      <c r="H55" s="2" t="inlineStr">
+        <is>
+          <t>37,48; 43,36</t>
+        </is>
+      </c>
+      <c r="I55" s="2" t="inlineStr">
+        <is>
+          <t>37,75; 44,63</t>
+        </is>
+      </c>
+      <c r="J55" s="2" t="inlineStr">
+        <is>
+          <t>28,05; 36,58</t>
+        </is>
+      </c>
+      <c r="K55" s="2" t="inlineStr">
+        <is>
+          <t>37,03; 42,14</t>
+        </is>
+      </c>
+      <c r="L55" s="2" t="inlineStr">
+        <is>
+          <t>38,36; 43,14</t>
+        </is>
+      </c>
+      <c r="M55" s="2" t="inlineStr">
+        <is>
+          <t>37,23; 42,88</t>
+        </is>
+      </c>
+      <c r="N55" s="2" t="inlineStr">
+        <is>
+          <t>31,38; 38,55</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n"/>
+      <c r="B56" s="3" t="inlineStr">
+        <is>
+          <t>Menos Diferencia Positiva</t>
+        </is>
+      </c>
+      <c r="C56" s="2" t="inlineStr">
+        <is>
+          <t>26,92%</t>
+        </is>
+      </c>
+      <c r="D56" s="2" t="inlineStr">
+        <is>
+          <t>30,89%</t>
+        </is>
+      </c>
+      <c r="E56" s="2" t="inlineStr">
+        <is>
+          <t>27,93%</t>
+        </is>
+      </c>
+      <c r="F56" s="2" t="inlineStr">
+        <is>
+          <t>24,28%</t>
+        </is>
+      </c>
+      <c r="G56" s="2" t="inlineStr">
+        <is>
+          <t>28,44%</t>
+        </is>
+      </c>
+      <c r="H56" s="2" t="inlineStr">
+        <is>
+          <t>30,18%</t>
+        </is>
+      </c>
+      <c r="I56" s="2" t="inlineStr">
+        <is>
+          <t>28,21%</t>
+        </is>
+      </c>
+      <c r="J56" s="2" t="inlineStr">
+        <is>
+          <t>26,97%</t>
+        </is>
+      </c>
+      <c r="K56" s="2" t="inlineStr">
+        <is>
+          <t>27,7%</t>
+        </is>
+      </c>
+      <c r="L56" s="2" t="inlineStr">
+        <is>
+          <t>30,53%</t>
+        </is>
+      </c>
+      <c r="M56" s="2" t="inlineStr">
+        <is>
+          <t>28,08%</t>
+        </is>
+      </c>
+      <c r="N56" s="2" t="inlineStr">
+        <is>
+          <t>25,62%</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n"/>
+      <c r="B57" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C57" s="2" t="inlineStr">
+        <is>
+          <t>23,13; 30,35</t>
+        </is>
+      </c>
+      <c r="D57" s="2" t="inlineStr">
+        <is>
+          <t>27,62; 34,71</t>
+        </is>
+      </c>
+      <c r="E57" s="2" t="inlineStr">
+        <is>
+          <t>23,93; 32,35</t>
+        </is>
+      </c>
+      <c r="F57" s="2" t="inlineStr">
+        <is>
+          <t>19,91; 29,93</t>
+        </is>
+      </c>
+      <c r="G57" s="2" t="inlineStr">
+        <is>
+          <t>25,35; 31,53</t>
+        </is>
+      </c>
+      <c r="H57" s="2" t="inlineStr">
+        <is>
+          <t>27,59; 33,29</t>
+        </is>
+      </c>
+      <c r="I57" s="2" t="inlineStr">
+        <is>
+          <t>25,04; 31,49</t>
+        </is>
+      </c>
+      <c r="J57" s="2" t="inlineStr">
+        <is>
+          <t>22,88; 31,53</t>
+        </is>
+      </c>
+      <c r="K57" s="2" t="inlineStr">
+        <is>
+          <t>25,56; 30,03</t>
+        </is>
+      </c>
+      <c r="L57" s="2" t="inlineStr">
+        <is>
+          <t>28,31; 32,56</t>
+        </is>
+      </c>
+      <c r="M57" s="2" t="inlineStr">
+        <is>
+          <t>25,63; 30,77</t>
+        </is>
+      </c>
+      <c r="N57" s="2" t="inlineStr">
+        <is>
+          <t>22,44; 29,02</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n"/>
+      <c r="B58" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="D58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="E58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="F58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="G58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="K58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n"/>
+      <c r="B59" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A22:A27"/>
-    <mergeCell ref="A40:A45"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="A16:A21"/>
-    <mergeCell ref="A34:A39"/>
-    <mergeCell ref="A10:A15"/>
-    <mergeCell ref="A28:A33"/>
+    <mergeCell ref="A44:A51"/>
+    <mergeCell ref="A4:A11"/>
+    <mergeCell ref="A12:A19"/>
+    <mergeCell ref="A52:A59"/>
+    <mergeCell ref="A20:A27"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A28:A35"/>
+    <mergeCell ref="A36:A43"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/long_dif/P29-Edad-long_dif.xlsx
+++ b/data/long_dif/P29-Edad-long_dif.xlsx
@@ -656,7 +656,7 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Más diferencia negativa</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C4" s="5" t="n">
@@ -788,7 +788,7 @@
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C7" s="5" t="n">
@@ -920,7 +920,7 @@
       <c r="A10" s="1" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Menos Diferencia Positiva</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C10" s="5" t="n">
@@ -1056,7 +1056,7 @@
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>Más diferencia negativa</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C13" s="5" t="n">
@@ -1188,7 +1188,7 @@
       <c r="A16" s="1" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C16" s="5" t="n">
@@ -1320,7 +1320,7 @@
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>Menos Diferencia Positiva</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C19" s="5" t="n">
@@ -1456,7 +1456,7 @@
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Más diferencia negativa</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C22" s="5" t="n">
@@ -1588,7 +1588,7 @@
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C25" s="5" t="n">
@@ -1720,7 +1720,7 @@
       <c r="A28" s="1" t="n"/>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>Menos Diferencia Positiva</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C28" s="5" t="n">
@@ -1856,7 +1856,7 @@
       </c>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>Más diferencia negativa</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C31" s="5" t="n">
@@ -1988,7 +1988,7 @@
       <c r="A34" s="1" t="n"/>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C34" s="5" t="n">
@@ -2120,7 +2120,7 @@
       <c r="A37" s="1" t="n"/>
       <c r="B37" s="3" t="inlineStr">
         <is>
-          <t>Menos Diferencia Positiva</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C37" s="5" t="n">
@@ -2256,7 +2256,7 @@
       </c>
       <c r="B40" s="3" t="inlineStr">
         <is>
-          <t>Más diferencia negativa</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C40" s="5" t="n">
@@ -2388,7 +2388,7 @@
       <c r="A43" s="1" t="n"/>
       <c r="B43" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C43" s="5" t="n">
@@ -2520,7 +2520,7 @@
       <c r="A46" s="1" t="n"/>
       <c r="B46" s="3" t="inlineStr">
         <is>
-          <t>Menos Diferencia Positiva</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C46" s="5" t="n">
@@ -2656,7 +2656,7 @@
       </c>
       <c r="B49" s="3" t="inlineStr">
         <is>
-          <t>Más diferencia negativa</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C49" s="5" t="n">
@@ -2788,7 +2788,7 @@
       <c r="A52" s="1" t="n"/>
       <c r="B52" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C52" s="5" t="n">
@@ -2920,7 +2920,7 @@
       <c r="A55" s="1" t="n"/>
       <c r="B55" s="3" t="inlineStr">
         <is>
-          <t>Menos Diferencia Positiva</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C55" s="5" t="n">
@@ -3056,7 +3056,7 @@
       </c>
       <c r="B58" s="3" t="inlineStr">
         <is>
-          <t>Más diferencia negativa</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C58" s="5" t="n">
@@ -3188,7 +3188,7 @@
       <c r="A61" s="1" t="n"/>
       <c r="B61" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C61" s="5" t="n">
@@ -3320,7 +3320,7 @@
       <c r="A64" s="1" t="n"/>
       <c r="B64" s="3" t="inlineStr">
         <is>
-          <t>Menos Diferencia Positiva</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C64" s="5" t="n">
